--- a/medicine/Enfance/Alice_et_le_Violon_tzigane/Alice_et_le_Violon_tzigane.xlsx
+++ b/medicine/Enfance/Alice_et_le_Violon_tzigane/Alice_et_le_Violon_tzigane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et le Violon tzigane (titre original : The Clue in the Old Album, littéralement : L'Indice dans le vieil album) est le vingt-quatrième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
+Alice et le Violon tzigane (titre original : The Clue in the Old Album, littéralement : L'Indice dans le vieil album) est le vingt-quatrième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Mildred Wirt Benson. 
 Aux États-Unis, le roman a été publié pour la première fois en 1947 par Grosset &amp; Dunlap, New York. En France, ce roman n'a jamais paru dans sa version originale, mais dans la version revue et abrégée aux États-Unis en 1977. Il est paru pour la première fois en 1978 chez Hachette Jeunesse dans la collection « Bibliothèque verte » dans sa version abrégée.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée parue en 1978 en langue française.
 Mme Struttor, une vieille dame fortunée qui collectionne des poupées et des automates du monde entier, sollicite l'aide d'Alice pour élucider un mystère : trois ans auparavant, sa fille Enid avait été abandonnée par son mari, un violoniste tzigane originaire de Hongrie. Enid était tombée gravement malade ; sur son lit de mort, elle avait demandé à sa mère de retrouver une poupée et avait parlé d'un indice qui se trouverait dans l'album-photo de la famille. Pourquoi Enid tenait-elle tant à cette poupée ? était-ce pour la donner en souvenir à sa petite fille, Rose ? Mme Struttor l'ignorait. 
@@ -548,15 +562,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, jeune fille blonde, détective amateur, orpheline de mère, fille de James Roy.
-James Roy, avoué[2] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, jeune fille blonde, détective amateur, orpheline de mère, fille de James Roy.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
-Sarah, la vieille bonne des Roy, qui a élevé Alice à la mort de sa mère.
-Personnages spécifiques à ce roman
-Mme John Struttor (Mrs. Struthers en VO), riche veuve, collectionneur de poupées anciennes.
+Sarah, la vieille bonne des Roy, qui a élevé Alice à la mort de sa mère.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_le_Violon_tzigane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_le_Violon_tzigane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mme John Struttor (Mrs. Struthers en VO), riche veuve, collectionneur de poupées anciennes.
 Rose, onze ans, petite-fille de Mme Struttor.
 Alfred Blackwell, violoniste.
 Romano Pepito, père de Rose, violoniste tzigane.
@@ -569,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alice_et_le_Violon_tzigane</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alice_et_le_Violon_tzigane</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Note : Toutes les éditions ont paru aux éditions Hachette.
 1978 : Alice et le Violon tzigane — coll. « Bibliothèque verte », cartonné (français, version abrégée). Illustré par Jean-Louis Mercier. Texte français d'Anne Joba. 25 chapitres. 180 p. 
